--- a/Data/EC/NIT-9011377417.xlsx
+++ b/Data/EC/NIT-9011377417.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16FB451C-4129-4B80-ACB6-3DB451B0B73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C8693F2-E597-4336-94B0-A292AA15AFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E0DD1D01-681F-4D83-AA18-1DE326C7C5DD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{73D144BB-7480-4FAD-837D-12FA659EE46E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,12 +65,42 @@
     <t>CC</t>
   </si>
   <si>
+    <t>8854791</t>
+  </si>
+  <si>
+    <t>ALEXANDER MARTINEZ ARIAS</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>9146396</t>
+  </si>
+  <si>
+    <t>RICARDO DE AVILA RAMOS</t>
+  </si>
+  <si>
+    <t>33227517</t>
+  </si>
+  <si>
+    <t>DIANA MARCELA SALCEDO CASTELLAR</t>
+  </si>
+  <si>
+    <t>1128054052</t>
+  </si>
+  <si>
+    <t>DAVID LEONARDO BARBOSA ESPITIA</t>
+  </si>
+  <si>
     <t>1049829535</t>
   </si>
   <si>
     <t>ANGEL DAVID ACEVEDO VICTOR</t>
   </si>
   <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2505</t>
   </si>
   <si>
@@ -84,21 +114,6 @@
   </si>
   <si>
     <t>LUIS MIGUEL MERCADO JUNCO</t>
-  </si>
-  <si>
-    <t>9146396</t>
-  </si>
-  <si>
-    <t>RICARDO DE AVILA RAMOS</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>33227517</t>
-  </si>
-  <si>
-    <t>DIANA MARCELA SALCEDO CASTELLAR</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -142,7 +157,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE94EE3-C38F-60E8-C3DA-78590C36C9AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{612295F1-AECD-54BA-B4AA-0B424077D4D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -863,32 +878,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CF762D-B235-4BFE-8660-AB4E4F8E64B1}">
-  <dimension ref="B2:J29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367B275B-78A5-4264-8A2D-246DBECF4ACF}">
+  <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -897,7 +912,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -908,7 +923,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -919,7 +934,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -930,10 +945,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -946,8 +961,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -962,15 +977,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>421356</v>
+        <v>706056</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -978,27 +993,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1018,16 +1033,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1041,7 +1056,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>45552</v>
+        <v>56940</v>
       </c>
       <c r="G16" s="18">
         <v>1423500</v>
@@ -1050,7 +1065,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1064,16 +1079,16 @@
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>45552</v>
+        <v>56940</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>877803</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1087,16 +1102,16 @@
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>45552</v>
+        <v>56940</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>877803</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1107,7 +1122,7 @@
         <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>56940</v>
@@ -1119,18 +1134,18 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
         <v>56940</v>
@@ -1142,18 +1157,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
         <v>56940</v>
@@ -1165,21 +1180,21 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
-        <v>56940</v>
+        <v>45552</v>
       </c>
       <c r="G22" s="18">
         <v>1423500</v>
@@ -1188,57 +1203,172 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="21" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="24">
+      <c r="C23" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="18">
         <v>56940</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="18">
         <v>1423500</v>
       </c>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="B28" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="H28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="32"/>
-      <c r="H29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="18">
+        <v>45552</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="24">
+        <v>45552</v>
+      </c>
+      <c r="G28" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="H33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H33:J33"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9011377417.xlsx
+++ b/Data/EC/NIT-9011377417.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C8693F2-E597-4336-94B0-A292AA15AFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D16BA3CD-6BCB-4CB5-9460-78D526F86FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{73D144BB-7480-4FAD-837D-12FA659EE46E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C715553F-7023-4F3F-858E-F3BC4B85860C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,30 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1049829535</t>
+  </si>
+  <si>
+    <t>ANGEL DAVID ACEVEDO VICTOR</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>1002315450</t>
+  </si>
+  <si>
+    <t>YEIFER BARONA MANJARREZ</t>
+  </si>
+  <si>
+    <t>1051886922</t>
+  </si>
+  <si>
+    <t>LUIS MIGUEL MERCADO JUNCO</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>8854791</t>
   </si>
   <si>
@@ -74,46 +98,13 @@
     <t>2507</t>
   </si>
   <si>
-    <t>9146396</t>
-  </si>
-  <si>
-    <t>RICARDO DE AVILA RAMOS</t>
-  </si>
-  <si>
     <t>33227517</t>
   </si>
   <si>
     <t>DIANA MARCELA SALCEDO CASTELLAR</t>
   </si>
   <si>
-    <t>1128054052</t>
-  </si>
-  <si>
-    <t>DAVID LEONARDO BARBOSA ESPITIA</t>
-  </si>
-  <si>
-    <t>1049829535</t>
-  </si>
-  <si>
-    <t>ANGEL DAVID ACEVEDO VICTOR</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>1002315450</t>
-  </si>
-  <si>
-    <t>YEIFER BARONA MANJARREZ</t>
-  </si>
-  <si>
-    <t>1051886922</t>
-  </si>
-  <si>
-    <t>LUIS MIGUEL MERCADO JUNCO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -157,7 +148,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,7 +203,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -225,9 +218,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -427,23 +418,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -471,10 +462,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{612295F1-AECD-54BA-B4AA-0B424077D4D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D8C23DC-FC60-77B9-5444-CB1F03C18E17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,32 +869,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367B275B-78A5-4264-8A2D-246DBECF4ACF}">
-  <dimension ref="B2:J34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{989E746D-CB18-4FBB-9957-3E110DFB9A78}">
+  <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -912,7 +903,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -923,7 +914,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -934,7 +925,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -945,10 +936,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -961,8 +952,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -977,15 +968,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>706056</v>
+        <v>876876</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -993,27 +984,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F13" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1033,16 +1024,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1056,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>45552</v>
       </c>
       <c r="G16" s="18">
         <v>1423500</v>
@@ -1065,7 +1056,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1079,16 +1070,16 @@
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>45552</v>
       </c>
       <c r="G17" s="18">
-        <v>877803</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1102,27 +1093,27 @@
         <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>56940</v>
+        <v>45552</v>
       </c>
       <c r="G18" s="18">
-        <v>877803</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>56940</v>
@@ -1134,18 +1125,18 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>56940</v>
@@ -1157,18 +1148,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>56940</v>
@@ -1180,21 +1171,21 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="E22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F22" s="18">
-        <v>45552</v>
+        <v>56940</v>
       </c>
       <c r="G22" s="18">
         <v>1423500</v>
@@ -1203,18 +1194,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F23" s="18">
         <v>56940</v>
@@ -1226,18 +1217,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>56940</v>
@@ -1249,21 +1240,21 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
-        <v>45552</v>
+        <v>56940</v>
       </c>
       <c r="G25" s="18">
         <v>1423500</v>
@@ -1272,18 +1263,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
         <v>56940</v>
@@ -1295,18 +1286,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>56940</v>
@@ -1318,57 +1309,126 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="22" t="s">
+    <row r="28" spans="2:10">
+      <c r="B28" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="24">
-        <v>45552</v>
-      </c>
-      <c r="G28" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="32"/>
-      <c r="H33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="E28" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G31" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="H36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="H37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H36:J36"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
